--- a/VulnerabilityMapping/Securify.xlsx
+++ b/VulnerabilityMapping/Securify.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63F2002-948F-4EA0-BC26-33134DA78200}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955C8346-2D4E-4CA2-8A32-E502101D17B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,6 +11,15 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -42,9 +51,6 @@
     <t>TODReceiver</t>
   </si>
   <si>
-    <t>Transaction Order Affects Ether Receiver</t>
-  </si>
-  <si>
     <t>locked-ether</t>
   </si>
   <si>
@@ -57,18 +63,12 @@
     <t>MissingInputValidation</t>
   </si>
   <si>
-    <t>Missing Input Validation</t>
-  </si>
-  <si>
     <t>UnrestrictedWrite</t>
   </si>
   <si>
     <t>TODAmount</t>
   </si>
   <si>
-    <t>money_concurrency</t>
-  </si>
-  <si>
     <t>DAO</t>
   </si>
   <si>
@@ -102,6 +102,18 @@
   </si>
   <si>
     <t>RepeatedCall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOD-receiver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money-concurrency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>missing-input-validation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +527,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -546,10 +558,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
@@ -563,7 +575,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>5</v>
@@ -574,10 +586,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -588,10 +600,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>5</v>
@@ -602,13 +614,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -616,13 +628,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -630,13 +642,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -644,13 +656,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -658,13 +670,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -672,13 +684,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
